--- a/Unity/Assets/Config/Excel/StartConfig/Release_OutNet_8.134.156.170_Demo/StartSceneConfig.xlsx
+++ b/Unity/Assets/Config/Excel/StartConfig/Release_OutNet_8.134.156.170_Demo/StartSceneConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\StartConfig\Release_148\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\StartConfig\Release_OutNet_8.134.156.170_Demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B2D0327-405B-4531-ACDC-9B8305E7100A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05935684-F00A-485E-ABF0-399B7EDEFF12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="1200" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StartSceneConfig" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="42">
   <si>
     <t>##var</t>
   </si>
@@ -150,6 +150,10 @@
   </si>
   <si>
     <t>Router04</t>
+  </si>
+  <si>
+    <t>Pay</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -644,8 +648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMK38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -964,7 +968,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="B17" s="2">
         <v>14</v>
       </c>
@@ -981,7 +985,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="B18" s="2">
         <v>15</v>
       </c>
@@ -998,46 +1002,1082 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B19" s="2"/>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1025" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A19"/>
+      <c r="B19" s="7">
+        <v>404</v>
+      </c>
+      <c r="C19" s="7">
+        <v>1</v>
+      </c>
+      <c r="D19" s="7">
+        <v>1</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G19" s="7">
+        <v>6078</v>
+      </c>
+      <c r="H19"/>
+      <c r="I19"/>
+      <c r="J19"/>
+      <c r="K19"/>
+      <c r="L19"/>
+      <c r="M19"/>
+      <c r="N19"/>
+      <c r="O19"/>
+      <c r="P19"/>
+      <c r="Q19"/>
+      <c r="R19"/>
+      <c r="S19"/>
+      <c r="T19"/>
+      <c r="U19"/>
+      <c r="V19"/>
+      <c r="W19"/>
+      <c r="X19"/>
+      <c r="Y19"/>
+      <c r="Z19"/>
+      <c r="AA19"/>
+      <c r="AB19"/>
+      <c r="AC19"/>
+      <c r="AD19"/>
+      <c r="AE19"/>
+      <c r="AF19"/>
+      <c r="AG19"/>
+      <c r="AH19"/>
+      <c r="AI19"/>
+      <c r="AJ19"/>
+      <c r="AK19"/>
+      <c r="AL19"/>
+      <c r="AM19"/>
+      <c r="AN19"/>
+      <c r="AO19"/>
+      <c r="AP19"/>
+      <c r="AQ19"/>
+      <c r="AR19"/>
+      <c r="AS19"/>
+      <c r="AT19"/>
+      <c r="AU19"/>
+      <c r="AV19"/>
+      <c r="AW19"/>
+      <c r="AX19"/>
+      <c r="AY19"/>
+      <c r="AZ19"/>
+      <c r="BA19"/>
+      <c r="BB19"/>
+      <c r="BC19"/>
+      <c r="BD19"/>
+      <c r="BE19"/>
+      <c r="BF19"/>
+      <c r="BG19"/>
+      <c r="BH19"/>
+      <c r="BI19"/>
+      <c r="BJ19"/>
+      <c r="BK19"/>
+      <c r="BL19"/>
+      <c r="BM19"/>
+      <c r="BN19"/>
+      <c r="BO19"/>
+      <c r="BP19"/>
+      <c r="BQ19"/>
+      <c r="BR19"/>
+      <c r="BS19"/>
+      <c r="BT19"/>
+      <c r="BU19"/>
+      <c r="BV19"/>
+      <c r="BW19"/>
+      <c r="BX19"/>
+      <c r="BY19"/>
+      <c r="BZ19"/>
+      <c r="CA19"/>
+      <c r="CB19"/>
+      <c r="CC19"/>
+      <c r="CD19"/>
+      <c r="CE19"/>
+      <c r="CF19"/>
+      <c r="CG19"/>
+      <c r="CH19"/>
+      <c r="CI19"/>
+      <c r="CJ19"/>
+      <c r="CK19"/>
+      <c r="CL19"/>
+      <c r="CM19"/>
+      <c r="CN19"/>
+      <c r="CO19"/>
+      <c r="CP19"/>
+      <c r="CQ19"/>
+      <c r="CR19"/>
+      <c r="CS19"/>
+      <c r="CT19"/>
+      <c r="CU19"/>
+      <c r="CV19"/>
+      <c r="CW19"/>
+      <c r="CX19"/>
+      <c r="CY19"/>
+      <c r="CZ19"/>
+      <c r="DA19"/>
+      <c r="DB19"/>
+      <c r="DC19"/>
+      <c r="DD19"/>
+      <c r="DE19"/>
+      <c r="DF19"/>
+      <c r="DG19"/>
+      <c r="DH19"/>
+      <c r="DI19"/>
+      <c r="DJ19"/>
+      <c r="DK19"/>
+      <c r="DL19"/>
+      <c r="DM19"/>
+      <c r="DN19"/>
+      <c r="DO19"/>
+      <c r="DP19"/>
+      <c r="DQ19"/>
+      <c r="DR19"/>
+      <c r="DS19"/>
+      <c r="DT19"/>
+      <c r="DU19"/>
+      <c r="DV19"/>
+      <c r="DW19"/>
+      <c r="DX19"/>
+      <c r="DY19"/>
+      <c r="DZ19"/>
+      <c r="EA19"/>
+      <c r="EB19"/>
+      <c r="EC19"/>
+      <c r="ED19"/>
+      <c r="EE19"/>
+      <c r="EF19"/>
+      <c r="EG19"/>
+      <c r="EH19"/>
+      <c r="EI19"/>
+      <c r="EJ19"/>
+      <c r="EK19"/>
+      <c r="EL19"/>
+      <c r="EM19"/>
+      <c r="EN19"/>
+      <c r="EO19"/>
+      <c r="EP19"/>
+      <c r="EQ19"/>
+      <c r="ER19"/>
+      <c r="ES19"/>
+      <c r="ET19"/>
+      <c r="EU19"/>
+      <c r="EV19"/>
+      <c r="EW19"/>
+      <c r="EX19"/>
+      <c r="EY19"/>
+      <c r="EZ19"/>
+      <c r="FA19"/>
+      <c r="FB19"/>
+      <c r="FC19"/>
+      <c r="FD19"/>
+      <c r="FE19"/>
+      <c r="FF19"/>
+      <c r="FG19"/>
+      <c r="FH19"/>
+      <c r="FI19"/>
+      <c r="FJ19"/>
+      <c r="FK19"/>
+      <c r="FL19"/>
+      <c r="FM19"/>
+      <c r="FN19"/>
+      <c r="FO19"/>
+      <c r="FP19"/>
+      <c r="FQ19"/>
+      <c r="FR19"/>
+      <c r="FS19"/>
+      <c r="FT19"/>
+      <c r="FU19"/>
+      <c r="FV19"/>
+      <c r="FW19"/>
+      <c r="FX19"/>
+      <c r="FY19"/>
+      <c r="FZ19"/>
+      <c r="GA19"/>
+      <c r="GB19"/>
+      <c r="GC19"/>
+      <c r="GD19"/>
+      <c r="GE19"/>
+      <c r="GF19"/>
+      <c r="GG19"/>
+      <c r="GH19"/>
+      <c r="GI19"/>
+      <c r="GJ19"/>
+      <c r="GK19"/>
+      <c r="GL19"/>
+      <c r="GM19"/>
+      <c r="GN19"/>
+      <c r="GO19"/>
+      <c r="GP19"/>
+      <c r="GQ19"/>
+      <c r="GR19"/>
+      <c r="GS19"/>
+      <c r="GT19"/>
+      <c r="GU19"/>
+      <c r="GV19"/>
+      <c r="GW19"/>
+      <c r="GX19"/>
+      <c r="GY19"/>
+      <c r="GZ19"/>
+      <c r="HA19"/>
+      <c r="HB19"/>
+      <c r="HC19"/>
+      <c r="HD19"/>
+      <c r="HE19"/>
+      <c r="HF19"/>
+      <c r="HG19"/>
+      <c r="HH19"/>
+      <c r="HI19"/>
+      <c r="HJ19"/>
+      <c r="HK19"/>
+      <c r="HL19"/>
+      <c r="HM19"/>
+      <c r="HN19"/>
+      <c r="HO19"/>
+      <c r="HP19"/>
+      <c r="HQ19"/>
+      <c r="HR19"/>
+      <c r="HS19"/>
+      <c r="HT19"/>
+      <c r="HU19"/>
+      <c r="HV19"/>
+      <c r="HW19"/>
+      <c r="HX19"/>
+      <c r="HY19"/>
+      <c r="HZ19"/>
+      <c r="IA19"/>
+      <c r="IB19"/>
+      <c r="IC19"/>
+      <c r="ID19"/>
+      <c r="IE19"/>
+      <c r="IF19"/>
+      <c r="IG19"/>
+      <c r="IH19"/>
+      <c r="II19"/>
+      <c r="IJ19"/>
+      <c r="IK19"/>
+      <c r="IL19"/>
+      <c r="IM19"/>
+      <c r="IN19"/>
+      <c r="IO19"/>
+      <c r="IP19"/>
+      <c r="IQ19"/>
+      <c r="IR19"/>
+      <c r="IS19"/>
+      <c r="IT19"/>
+      <c r="IU19"/>
+      <c r="IV19"/>
+      <c r="IW19"/>
+      <c r="IX19"/>
+      <c r="IY19"/>
+      <c r="IZ19"/>
+      <c r="JA19"/>
+      <c r="JB19"/>
+      <c r="JC19"/>
+      <c r="JD19"/>
+      <c r="JE19"/>
+      <c r="JF19"/>
+      <c r="JG19"/>
+      <c r="JH19"/>
+      <c r="JI19"/>
+      <c r="JJ19"/>
+      <c r="JK19"/>
+      <c r="JL19"/>
+      <c r="JM19"/>
+      <c r="JN19"/>
+      <c r="JO19"/>
+      <c r="JP19"/>
+      <c r="JQ19"/>
+      <c r="JR19"/>
+      <c r="JS19"/>
+      <c r="JT19"/>
+      <c r="JU19"/>
+      <c r="JV19"/>
+      <c r="JW19"/>
+      <c r="JX19"/>
+      <c r="JY19"/>
+      <c r="JZ19"/>
+      <c r="KA19"/>
+      <c r="KB19"/>
+      <c r="KC19"/>
+      <c r="KD19"/>
+      <c r="KE19"/>
+      <c r="KF19"/>
+      <c r="KG19"/>
+      <c r="KH19"/>
+      <c r="KI19"/>
+      <c r="KJ19"/>
+      <c r="KK19"/>
+      <c r="KL19"/>
+      <c r="KM19"/>
+      <c r="KN19"/>
+      <c r="KO19"/>
+      <c r="KP19"/>
+      <c r="KQ19"/>
+      <c r="KR19"/>
+      <c r="KS19"/>
+      <c r="KT19"/>
+      <c r="KU19"/>
+      <c r="KV19"/>
+      <c r="KW19"/>
+      <c r="KX19"/>
+      <c r="KY19"/>
+      <c r="KZ19"/>
+      <c r="LA19"/>
+      <c r="LB19"/>
+      <c r="LC19"/>
+      <c r="LD19"/>
+      <c r="LE19"/>
+      <c r="LF19"/>
+      <c r="LG19"/>
+      <c r="LH19"/>
+      <c r="LI19"/>
+      <c r="LJ19"/>
+      <c r="LK19"/>
+      <c r="LL19"/>
+      <c r="LM19"/>
+      <c r="LN19"/>
+      <c r="LO19"/>
+      <c r="LP19"/>
+      <c r="LQ19"/>
+      <c r="LR19"/>
+      <c r="LS19"/>
+      <c r="LT19"/>
+      <c r="LU19"/>
+      <c r="LV19"/>
+      <c r="LW19"/>
+      <c r="LX19"/>
+      <c r="LY19"/>
+      <c r="LZ19"/>
+      <c r="MA19"/>
+      <c r="MB19"/>
+      <c r="MC19"/>
+      <c r="MD19"/>
+      <c r="ME19"/>
+      <c r="MF19"/>
+      <c r="MG19"/>
+      <c r="MH19"/>
+      <c r="MI19"/>
+      <c r="MJ19"/>
+      <c r="MK19"/>
+      <c r="ML19"/>
+      <c r="MM19"/>
+      <c r="MN19"/>
+      <c r="MO19"/>
+      <c r="MP19"/>
+      <c r="MQ19"/>
+      <c r="MR19"/>
+      <c r="MS19"/>
+      <c r="MT19"/>
+      <c r="MU19"/>
+      <c r="MV19"/>
+      <c r="MW19"/>
+      <c r="MX19"/>
+      <c r="MY19"/>
+      <c r="MZ19"/>
+      <c r="NA19"/>
+      <c r="NB19"/>
+      <c r="NC19"/>
+      <c r="ND19"/>
+      <c r="NE19"/>
+      <c r="NF19"/>
+      <c r="NG19"/>
+      <c r="NH19"/>
+      <c r="NI19"/>
+      <c r="NJ19"/>
+      <c r="NK19"/>
+      <c r="NL19"/>
+      <c r="NM19"/>
+      <c r="NN19"/>
+      <c r="NO19"/>
+      <c r="NP19"/>
+      <c r="NQ19"/>
+      <c r="NR19"/>
+      <c r="NS19"/>
+      <c r="NT19"/>
+      <c r="NU19"/>
+      <c r="NV19"/>
+      <c r="NW19"/>
+      <c r="NX19"/>
+      <c r="NY19"/>
+      <c r="NZ19"/>
+      <c r="OA19"/>
+      <c r="OB19"/>
+      <c r="OC19"/>
+      <c r="OD19"/>
+      <c r="OE19"/>
+      <c r="OF19"/>
+      <c r="OG19"/>
+      <c r="OH19"/>
+      <c r="OI19"/>
+      <c r="OJ19"/>
+      <c r="OK19"/>
+      <c r="OL19"/>
+      <c r="OM19"/>
+      <c r="ON19"/>
+      <c r="OO19"/>
+      <c r="OP19"/>
+      <c r="OQ19"/>
+      <c r="OR19"/>
+      <c r="OS19"/>
+      <c r="OT19"/>
+      <c r="OU19"/>
+      <c r="OV19"/>
+      <c r="OW19"/>
+      <c r="OX19"/>
+      <c r="OY19"/>
+      <c r="OZ19"/>
+      <c r="PA19"/>
+      <c r="PB19"/>
+      <c r="PC19"/>
+      <c r="PD19"/>
+      <c r="PE19"/>
+      <c r="PF19"/>
+      <c r="PG19"/>
+      <c r="PH19"/>
+      <c r="PI19"/>
+      <c r="PJ19"/>
+      <c r="PK19"/>
+      <c r="PL19"/>
+      <c r="PM19"/>
+      <c r="PN19"/>
+      <c r="PO19"/>
+      <c r="PP19"/>
+      <c r="PQ19"/>
+      <c r="PR19"/>
+      <c r="PS19"/>
+      <c r="PT19"/>
+      <c r="PU19"/>
+      <c r="PV19"/>
+      <c r="PW19"/>
+      <c r="PX19"/>
+      <c r="PY19"/>
+      <c r="PZ19"/>
+      <c r="QA19"/>
+      <c r="QB19"/>
+      <c r="QC19"/>
+      <c r="QD19"/>
+      <c r="QE19"/>
+      <c r="QF19"/>
+      <c r="QG19"/>
+      <c r="QH19"/>
+      <c r="QI19"/>
+      <c r="QJ19"/>
+      <c r="QK19"/>
+      <c r="QL19"/>
+      <c r="QM19"/>
+      <c r="QN19"/>
+      <c r="QO19"/>
+      <c r="QP19"/>
+      <c r="QQ19"/>
+      <c r="QR19"/>
+      <c r="QS19"/>
+      <c r="QT19"/>
+      <c r="QU19"/>
+      <c r="QV19"/>
+      <c r="QW19"/>
+      <c r="QX19"/>
+      <c r="QY19"/>
+      <c r="QZ19"/>
+      <c r="RA19"/>
+      <c r="RB19"/>
+      <c r="RC19"/>
+      <c r="RD19"/>
+      <c r="RE19"/>
+      <c r="RF19"/>
+      <c r="RG19"/>
+      <c r="RH19"/>
+      <c r="RI19"/>
+      <c r="RJ19"/>
+      <c r="RK19"/>
+      <c r="RL19"/>
+      <c r="RM19"/>
+      <c r="RN19"/>
+      <c r="RO19"/>
+      <c r="RP19"/>
+      <c r="RQ19"/>
+      <c r="RR19"/>
+      <c r="RS19"/>
+      <c r="RT19"/>
+      <c r="RU19"/>
+      <c r="RV19"/>
+      <c r="RW19"/>
+      <c r="RX19"/>
+      <c r="RY19"/>
+      <c r="RZ19"/>
+      <c r="SA19"/>
+      <c r="SB19"/>
+      <c r="SC19"/>
+      <c r="SD19"/>
+      <c r="SE19"/>
+      <c r="SF19"/>
+      <c r="SG19"/>
+      <c r="SH19"/>
+      <c r="SI19"/>
+      <c r="SJ19"/>
+      <c r="SK19"/>
+      <c r="SL19"/>
+      <c r="SM19"/>
+      <c r="SN19"/>
+      <c r="SO19"/>
+      <c r="SP19"/>
+      <c r="SQ19"/>
+      <c r="SR19"/>
+      <c r="SS19"/>
+      <c r="ST19"/>
+      <c r="SU19"/>
+      <c r="SV19"/>
+      <c r="SW19"/>
+      <c r="SX19"/>
+      <c r="SY19"/>
+      <c r="SZ19"/>
+      <c r="TA19"/>
+      <c r="TB19"/>
+      <c r="TC19"/>
+      <c r="TD19"/>
+      <c r="TE19"/>
+      <c r="TF19"/>
+      <c r="TG19"/>
+      <c r="TH19"/>
+      <c r="TI19"/>
+      <c r="TJ19"/>
+      <c r="TK19"/>
+      <c r="TL19"/>
+      <c r="TM19"/>
+      <c r="TN19"/>
+      <c r="TO19"/>
+      <c r="TP19"/>
+      <c r="TQ19"/>
+      <c r="TR19"/>
+      <c r="TS19"/>
+      <c r="TT19"/>
+      <c r="TU19"/>
+      <c r="TV19"/>
+      <c r="TW19"/>
+      <c r="TX19"/>
+      <c r="TY19"/>
+      <c r="TZ19"/>
+      <c r="UA19"/>
+      <c r="UB19"/>
+      <c r="UC19"/>
+      <c r="UD19"/>
+      <c r="UE19"/>
+      <c r="UF19"/>
+      <c r="UG19"/>
+      <c r="UH19"/>
+      <c r="UI19"/>
+      <c r="UJ19"/>
+      <c r="UK19"/>
+      <c r="UL19"/>
+      <c r="UM19"/>
+      <c r="UN19"/>
+      <c r="UO19"/>
+      <c r="UP19"/>
+      <c r="UQ19"/>
+      <c r="UR19"/>
+      <c r="US19"/>
+      <c r="UT19"/>
+      <c r="UU19"/>
+      <c r="UV19"/>
+      <c r="UW19"/>
+      <c r="UX19"/>
+      <c r="UY19"/>
+      <c r="UZ19"/>
+      <c r="VA19"/>
+      <c r="VB19"/>
+      <c r="VC19"/>
+      <c r="VD19"/>
+      <c r="VE19"/>
+      <c r="VF19"/>
+      <c r="VG19"/>
+      <c r="VH19"/>
+      <c r="VI19"/>
+      <c r="VJ19"/>
+      <c r="VK19"/>
+      <c r="VL19"/>
+      <c r="VM19"/>
+      <c r="VN19"/>
+      <c r="VO19"/>
+      <c r="VP19"/>
+      <c r="VQ19"/>
+      <c r="VR19"/>
+      <c r="VS19"/>
+      <c r="VT19"/>
+      <c r="VU19"/>
+      <c r="VV19"/>
+      <c r="VW19"/>
+      <c r="VX19"/>
+      <c r="VY19"/>
+      <c r="VZ19"/>
+      <c r="WA19"/>
+      <c r="WB19"/>
+      <c r="WC19"/>
+      <c r="WD19"/>
+      <c r="WE19"/>
+      <c r="WF19"/>
+      <c r="WG19"/>
+      <c r="WH19"/>
+      <c r="WI19"/>
+      <c r="WJ19"/>
+      <c r="WK19"/>
+      <c r="WL19"/>
+      <c r="WM19"/>
+      <c r="WN19"/>
+      <c r="WO19"/>
+      <c r="WP19"/>
+      <c r="WQ19"/>
+      <c r="WR19"/>
+      <c r="WS19"/>
+      <c r="WT19"/>
+      <c r="WU19"/>
+      <c r="WV19"/>
+      <c r="WW19"/>
+      <c r="WX19"/>
+      <c r="WY19"/>
+      <c r="WZ19"/>
+      <c r="XA19"/>
+      <c r="XB19"/>
+      <c r="XC19"/>
+      <c r="XD19"/>
+      <c r="XE19"/>
+      <c r="XF19"/>
+      <c r="XG19"/>
+      <c r="XH19"/>
+      <c r="XI19"/>
+      <c r="XJ19"/>
+      <c r="XK19"/>
+      <c r="XL19"/>
+      <c r="XM19"/>
+      <c r="XN19"/>
+      <c r="XO19"/>
+      <c r="XP19"/>
+      <c r="XQ19"/>
+      <c r="XR19"/>
+      <c r="XS19"/>
+      <c r="XT19"/>
+      <c r="XU19"/>
+      <c r="XV19"/>
+      <c r="XW19"/>
+      <c r="XX19"/>
+      <c r="XY19"/>
+      <c r="XZ19"/>
+      <c r="YA19"/>
+      <c r="YB19"/>
+      <c r="YC19"/>
+      <c r="YD19"/>
+      <c r="YE19"/>
+      <c r="YF19"/>
+      <c r="YG19"/>
+      <c r="YH19"/>
+      <c r="YI19"/>
+      <c r="YJ19"/>
+      <c r="YK19"/>
+      <c r="YL19"/>
+      <c r="YM19"/>
+      <c r="YN19"/>
+      <c r="YO19"/>
+      <c r="YP19"/>
+      <c r="YQ19"/>
+      <c r="YR19"/>
+      <c r="YS19"/>
+      <c r="YT19"/>
+      <c r="YU19"/>
+      <c r="YV19"/>
+      <c r="YW19"/>
+      <c r="YX19"/>
+      <c r="YY19"/>
+      <c r="YZ19"/>
+      <c r="ZA19"/>
+      <c r="ZB19"/>
+      <c r="ZC19"/>
+      <c r="ZD19"/>
+      <c r="ZE19"/>
+      <c r="ZF19"/>
+      <c r="ZG19"/>
+      <c r="ZH19"/>
+      <c r="ZI19"/>
+      <c r="ZJ19"/>
+      <c r="ZK19"/>
+      <c r="ZL19"/>
+      <c r="ZM19"/>
+      <c r="ZN19"/>
+      <c r="ZO19"/>
+      <c r="ZP19"/>
+      <c r="ZQ19"/>
+      <c r="ZR19"/>
+      <c r="ZS19"/>
+      <c r="ZT19"/>
+      <c r="ZU19"/>
+      <c r="ZV19"/>
+      <c r="ZW19"/>
+      <c r="ZX19"/>
+      <c r="ZY19"/>
+      <c r="ZZ19"/>
+      <c r="AAA19"/>
+      <c r="AAB19"/>
+      <c r="AAC19"/>
+      <c r="AAD19"/>
+      <c r="AAE19"/>
+      <c r="AAF19"/>
+      <c r="AAG19"/>
+      <c r="AAH19"/>
+      <c r="AAI19"/>
+      <c r="AAJ19"/>
+      <c r="AAK19"/>
+      <c r="AAL19"/>
+      <c r="AAM19"/>
+      <c r="AAN19"/>
+      <c r="AAO19"/>
+      <c r="AAP19"/>
+      <c r="AAQ19"/>
+      <c r="AAR19"/>
+      <c r="AAS19"/>
+      <c r="AAT19"/>
+      <c r="AAU19"/>
+      <c r="AAV19"/>
+      <c r="AAW19"/>
+      <c r="AAX19"/>
+      <c r="AAY19"/>
+      <c r="AAZ19"/>
+      <c r="ABA19"/>
+      <c r="ABB19"/>
+      <c r="ABC19"/>
+      <c r="ABD19"/>
+      <c r="ABE19"/>
+      <c r="ABF19"/>
+      <c r="ABG19"/>
+      <c r="ABH19"/>
+      <c r="ABI19"/>
+      <c r="ABJ19"/>
+      <c r="ABK19"/>
+      <c r="ABL19"/>
+      <c r="ABM19"/>
+      <c r="ABN19"/>
+      <c r="ABO19"/>
+      <c r="ABP19"/>
+      <c r="ABQ19"/>
+      <c r="ABR19"/>
+      <c r="ABS19"/>
+      <c r="ABT19"/>
+      <c r="ABU19"/>
+      <c r="ABV19"/>
+      <c r="ABW19"/>
+      <c r="ABX19"/>
+      <c r="ABY19"/>
+      <c r="ABZ19"/>
+      <c r="ACA19"/>
+      <c r="ACB19"/>
+      <c r="ACC19"/>
+      <c r="ACD19"/>
+      <c r="ACE19"/>
+      <c r="ACF19"/>
+      <c r="ACG19"/>
+      <c r="ACH19"/>
+      <c r="ACI19"/>
+      <c r="ACJ19"/>
+      <c r="ACK19"/>
+      <c r="ACL19"/>
+      <c r="ACM19"/>
+      <c r="ACN19"/>
+      <c r="ACO19"/>
+      <c r="ACP19"/>
+      <c r="ACQ19"/>
+      <c r="ACR19"/>
+      <c r="ACS19"/>
+      <c r="ACT19"/>
+      <c r="ACU19"/>
+      <c r="ACV19"/>
+      <c r="ACW19"/>
+      <c r="ACX19"/>
+      <c r="ACY19"/>
+      <c r="ACZ19"/>
+      <c r="ADA19"/>
+      <c r="ADB19"/>
+      <c r="ADC19"/>
+      <c r="ADD19"/>
+      <c r="ADE19"/>
+      <c r="ADF19"/>
+      <c r="ADG19"/>
+      <c r="ADH19"/>
+      <c r="ADI19"/>
+      <c r="ADJ19"/>
+      <c r="ADK19"/>
+      <c r="ADL19"/>
+      <c r="ADM19"/>
+      <c r="ADN19"/>
+      <c r="ADO19"/>
+      <c r="ADP19"/>
+      <c r="ADQ19"/>
+      <c r="ADR19"/>
+      <c r="ADS19"/>
+      <c r="ADT19"/>
+      <c r="ADU19"/>
+      <c r="ADV19"/>
+      <c r="ADW19"/>
+      <c r="ADX19"/>
+      <c r="ADY19"/>
+      <c r="ADZ19"/>
+      <c r="AEA19"/>
+      <c r="AEB19"/>
+      <c r="AEC19"/>
+      <c r="AED19"/>
+      <c r="AEE19"/>
+      <c r="AEF19"/>
+      <c r="AEG19"/>
+      <c r="AEH19"/>
+      <c r="AEI19"/>
+      <c r="AEJ19"/>
+      <c r="AEK19"/>
+      <c r="AEL19"/>
+      <c r="AEM19"/>
+      <c r="AEN19"/>
+      <c r="AEO19"/>
+      <c r="AEP19"/>
+      <c r="AEQ19"/>
+      <c r="AER19"/>
+      <c r="AES19"/>
+      <c r="AET19"/>
+      <c r="AEU19"/>
+      <c r="AEV19"/>
+      <c r="AEW19"/>
+      <c r="AEX19"/>
+      <c r="AEY19"/>
+      <c r="AEZ19"/>
+      <c r="AFA19"/>
+      <c r="AFB19"/>
+      <c r="AFC19"/>
+      <c r="AFD19"/>
+      <c r="AFE19"/>
+      <c r="AFF19"/>
+      <c r="AFG19"/>
+      <c r="AFH19"/>
+      <c r="AFI19"/>
+      <c r="AFJ19"/>
+      <c r="AFK19"/>
+      <c r="AFL19"/>
+      <c r="AFM19"/>
+      <c r="AFN19"/>
+      <c r="AFO19"/>
+      <c r="AFP19"/>
+      <c r="AFQ19"/>
+      <c r="AFR19"/>
+      <c r="AFS19"/>
+      <c r="AFT19"/>
+      <c r="AFU19"/>
+      <c r="AFV19"/>
+      <c r="AFW19"/>
+      <c r="AFX19"/>
+      <c r="AFY19"/>
+      <c r="AFZ19"/>
+      <c r="AGA19"/>
+      <c r="AGB19"/>
+      <c r="AGC19"/>
+      <c r="AGD19"/>
+      <c r="AGE19"/>
+      <c r="AGF19"/>
+      <c r="AGG19"/>
+      <c r="AGH19"/>
+      <c r="AGI19"/>
+      <c r="AGJ19"/>
+      <c r="AGK19"/>
+      <c r="AGL19"/>
+      <c r="AGM19"/>
+      <c r="AGN19"/>
+      <c r="AGO19"/>
+      <c r="AGP19"/>
+      <c r="AGQ19"/>
+      <c r="AGR19"/>
+      <c r="AGS19"/>
+      <c r="AGT19"/>
+      <c r="AGU19"/>
+      <c r="AGV19"/>
+      <c r="AGW19"/>
+      <c r="AGX19"/>
+      <c r="AGY19"/>
+      <c r="AGZ19"/>
+      <c r="AHA19"/>
+      <c r="AHB19"/>
+      <c r="AHC19"/>
+      <c r="AHD19"/>
+      <c r="AHE19"/>
+      <c r="AHF19"/>
+      <c r="AHG19"/>
+      <c r="AHH19"/>
+      <c r="AHI19"/>
+      <c r="AHJ19"/>
+      <c r="AHK19"/>
+      <c r="AHL19"/>
+      <c r="AHM19"/>
+      <c r="AHN19"/>
+      <c r="AHO19"/>
+      <c r="AHP19"/>
+      <c r="AHQ19"/>
+      <c r="AHR19"/>
+      <c r="AHS19"/>
+      <c r="AHT19"/>
+      <c r="AHU19"/>
+      <c r="AHV19"/>
+      <c r="AHW19"/>
+      <c r="AHX19"/>
+      <c r="AHY19"/>
+      <c r="AHZ19"/>
+      <c r="AIA19"/>
+      <c r="AIB19"/>
+      <c r="AIC19"/>
+      <c r="AID19"/>
+      <c r="AIE19"/>
+      <c r="AIF19"/>
+      <c r="AIG19"/>
+      <c r="AIH19"/>
+      <c r="AII19"/>
+      <c r="AIJ19"/>
+      <c r="AIK19"/>
+      <c r="AIL19"/>
+      <c r="AIM19"/>
+      <c r="AIN19"/>
+      <c r="AIO19"/>
+      <c r="AIP19"/>
+      <c r="AIQ19"/>
+      <c r="AIR19"/>
+      <c r="AIS19"/>
+      <c r="AIT19"/>
+      <c r="AIU19"/>
+      <c r="AIV19"/>
+      <c r="AIW19"/>
+      <c r="AIX19"/>
+      <c r="AIY19"/>
+      <c r="AIZ19"/>
+      <c r="AJA19"/>
+      <c r="AJB19"/>
+      <c r="AJC19"/>
+      <c r="AJD19"/>
+      <c r="AJE19"/>
+      <c r="AJF19"/>
+      <c r="AJG19"/>
+      <c r="AJH19"/>
+      <c r="AJI19"/>
+      <c r="AJJ19"/>
+      <c r="AJK19"/>
+      <c r="AJL19"/>
+      <c r="AJM19"/>
+      <c r="AJN19"/>
+      <c r="AJO19"/>
+      <c r="AJP19"/>
+      <c r="AJQ19"/>
+      <c r="AJR19"/>
+      <c r="AJS19"/>
+      <c r="AJT19"/>
+      <c r="AJU19"/>
+      <c r="AJV19"/>
+      <c r="AJW19"/>
+      <c r="AJX19"/>
+      <c r="AJY19"/>
+      <c r="AJZ19"/>
+      <c r="AKA19"/>
+      <c r="AKB19"/>
+      <c r="AKC19"/>
+      <c r="AKD19"/>
+      <c r="AKE19"/>
+      <c r="AKF19"/>
+      <c r="AKG19"/>
+      <c r="AKH19"/>
+      <c r="AKI19"/>
+      <c r="AKJ19"/>
+      <c r="AKK19"/>
+      <c r="AKL19"/>
+      <c r="AKM19"/>
+      <c r="AKN19"/>
+      <c r="AKO19"/>
+      <c r="AKP19"/>
+      <c r="AKQ19"/>
+      <c r="AKR19"/>
+      <c r="AKS19"/>
+      <c r="AKT19"/>
+      <c r="AKU19"/>
+      <c r="AKV19"/>
+      <c r="AKW19"/>
+      <c r="AKX19"/>
+      <c r="AKY19"/>
+      <c r="AKZ19"/>
+      <c r="ALA19"/>
+      <c r="ALB19"/>
+      <c r="ALC19"/>
+      <c r="ALD19"/>
+      <c r="ALE19"/>
+      <c r="ALF19"/>
+      <c r="ALG19"/>
+      <c r="ALH19"/>
+      <c r="ALI19"/>
+      <c r="ALJ19"/>
+      <c r="ALK19"/>
+      <c r="ALL19"/>
+      <c r="ALM19"/>
+      <c r="ALN19"/>
+      <c r="ALO19"/>
+      <c r="ALP19"/>
+      <c r="ALQ19"/>
+      <c r="ALR19"/>
+      <c r="ALS19"/>
+      <c r="ALT19"/>
+      <c r="ALU19"/>
+      <c r="ALV19"/>
+      <c r="ALW19"/>
+      <c r="ALX19"/>
+      <c r="ALY19"/>
+      <c r="ALZ19"/>
+      <c r="AMA19"/>
+      <c r="AMB19"/>
+      <c r="AMC19"/>
+      <c r="AMD19"/>
+      <c r="AME19"/>
+      <c r="AMF19"/>
+      <c r="AMG19"/>
+      <c r="AMH19"/>
+      <c r="AMI19"/>
+      <c r="AMJ19"/>
+      <c r="AMK19"/>
+    </row>
+    <row r="20" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="B20" s="2"/>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="B21" s="2"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="B22" s="2"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="B23" s="2"/>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="B24" s="2"/>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="B25" s="2"/>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="B26" s="2"/>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="B27" s="2"/>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="B28" s="2"/>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="B29" s="2"/>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="B30" s="2"/>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="B31" s="2"/>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="B32" s="2"/>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.3">
@@ -1266,7 +2306,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView zoomScale="137" zoomScaleNormal="137" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>

--- a/Unity/Assets/Config/Excel/StartConfig/Release_OutNet_8.134.156.170_Demo/StartSceneConfig.xlsx
+++ b/Unity/Assets/Config/Excel/StartConfig/Release_OutNet_8.134.156.170_Demo/StartSceneConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\StartConfig\Release_OutNet_8.134.156.170_Demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05935684-F00A-485E-ABF0-399B7EDEFF12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A3429B5-D008-48A1-BA99-1B8B82A1375F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="1200" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="2352" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StartSceneConfig" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="43">
   <si>
     <t>##var</t>
   </si>
@@ -154,6 +154,9 @@
   <si>
     <t>Pay</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Season</t>
   </si>
 </sst>
 </file>
@@ -649,7 +652,7 @@
   <dimension ref="A1:AMK38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -2042,7 +2045,21 @@
       <c r="AMK19"/>
     </row>
     <row r="20" spans="1:1025" x14ac:dyDescent="0.3">
-      <c r="B20" s="2"/>
+      <c r="B20" s="2">
+        <v>16</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1</v>
+      </c>
+      <c r="D20" s="2">
+        <v>1</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="21" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="B21" s="2"/>
